--- a/2需求管理/iRace-敏捷项目管理-SprintBacklog v1.0/SP1-3.xlsx
+++ b/2需求管理/iRace-敏捷项目管理-SprintBacklog v1.0/SP1-3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FILE\大三下\courses\软件工程综合实践-张红延\iRace-竞赛综合管理平台项目配置管理中心\2需求管理\iRace-敏捷项目管理-SprintBacklog v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Tencent Files\741753181\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Task name</t>
   </si>
@@ -183,107 +183,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据库模型设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王俊猛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Planned</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学习</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JBPM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>框架</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置服务器，开发环境，数据库环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李鹏翔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选取测试工具，配置测试环境，学习使用测试工具，确定测试流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>找网页模板，开源代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置环境搭建，学习</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GitHub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用方法</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董勇腾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>建立稳定的后台服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化SQL语句，提高效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -293,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;Sprint &quot;#&quot; Backlog&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,12 +235,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -366,7 +265,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,47 +298,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -1122,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1211,21 +1075,158 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5">
         <v>36</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>41</v>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A10:E11">
+    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
+      <formula>$D10="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
+      <formula>$D10="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="7">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1255,19 +1256,19 @@
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
-        <v>36</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1296,20 +1297,20 @@
       <c r="AD11" s="6"/>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
+      <c r="A12" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="5">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1338,20 +1339,21 @@
       <c r="AD12" s="6"/>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>47</v>
+      <c r="A13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>IF(A17&lt;&gt;"","Planned","")</f>
+        <v>Planned</v>
       </c>
       <c r="E13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1379,114 +1381,542 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="6">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="5">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6" t="str">
-        <f t="shared" ref="AC14:AD15" ca="1" si="0">IF(OR(AC$14="",$E14=""),"",AB14)</f>
-        <v/>
-      </c>
-      <c r="AD14" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AD15" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="B32" s="5">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A10:AD15">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="55" priority="35" stopIfTrue="1">
+      <formula>$D17="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="36" stopIfTrue="1">
+      <formula>$D17="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:AD12 B13:AD13 A14:E14 A15:B16 B17:B18 D15:E18">
+    <cfRule type="expression" dxfId="53" priority="43" stopIfTrue="1">
       <formula>$D10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="44" stopIfTrue="1">
       <formula>$D10="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
+      <formula>$D14="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+      <formula>$D14="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+      <formula>$D13="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+      <formula>$D13="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+      <formula>$D16="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+      <formula>$D16="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
+      <formula>$D15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+      <formula>$D15="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
+      <formula>$D18="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38" stopIfTrue="1">
+      <formula>$D18="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B24 A26:A33 B25:B33 D19:E33">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
+      <formula>$D19="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
+      <formula>$D19="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
+      <formula>$D24="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+      <formula>$D24="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
+      <formula>$D19="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+      <formula>$D19="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="35" priority="27" stopIfTrue="1">
+      <formula>$D24="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="28" stopIfTrue="1">
+      <formula>$D24="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
+      <formula>$D30="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+      <formula>$D30="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+      <formula>$D23="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+      <formula>$D23="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="29" priority="21" stopIfTrue="1">
+      <formula>$D29="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+      <formula>$D29="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="27" priority="19" stopIfTrue="1">
+      <formula>$D22="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="20" stopIfTrue="1">
+      <formula>$D22="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+      <formula>$D28="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+      <formula>$D28="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
+      <formula>$D21="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
+      <formula>$D21="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
+      <formula>$D27="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+      <formula>$D27="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+      <formula>$D33="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+      <formula>$D33="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+      <formula>$D20="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+      <formula>$D20="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+      <formula>$D25="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>$D25="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>$D31="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+      <formula>$D31="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>$D26="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>$D26="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>$D32="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+      <formula>$D32="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D10:D15 IZ10:IZ15 SV10:SV15 ACR10:ACR15 AMN10:AMN15 AWJ10:AWJ15 BGF10:BGF15 BQB10:BQB15 BZX10:BZX15 CJT10:CJT15 CTP10:CTP15 DDL10:DDL15 DNH10:DNH15 DXD10:DXD15 EGZ10:EGZ15 EQV10:EQV15 FAR10:FAR15 FKN10:FKN15 FUJ10:FUJ15 GEF10:GEF15 GOB10:GOB15 GXX10:GXX15 HHT10:HHT15 HRP10:HRP15 IBL10:IBL15 ILH10:ILH15 IVD10:IVD15 JEZ10:JEZ15 JOV10:JOV15 JYR10:JYR15 KIN10:KIN15 KSJ10:KSJ15 LCF10:LCF15 LMB10:LMB15 LVX10:LVX15 MFT10:MFT15 MPP10:MPP15 MZL10:MZL15 NJH10:NJH15 NTD10:NTD15 OCZ10:OCZ15 OMV10:OMV15 OWR10:OWR15 PGN10:PGN15 PQJ10:PQJ15 QAF10:QAF15 QKB10:QKB15 QTX10:QTX15 RDT10:RDT15 RNP10:RNP15 RXL10:RXL15 SHH10:SHH15 SRD10:SRD15 TAZ10:TAZ15 TKV10:TKV15 TUR10:TUR15 UEN10:UEN15 UOJ10:UOJ15 UYF10:UYF15 VIB10:VIB15 VRX10:VRX15 WBT10:WBT15 WLP10:WLP15 WVL10:WVL15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="WVL10:WVL13 IZ10:IZ13 SV10:SV13 ACR10:ACR13 AMN10:AMN13 AWJ10:AWJ13 BGF10:BGF13 BQB10:BQB13 BZX10:BZX13 CJT10:CJT13 CTP10:CTP13 DDL10:DDL13 DNH10:DNH13 DXD10:DXD13 EGZ10:EGZ13 EQV10:EQV13 FAR10:FAR13 FKN10:FKN13 FUJ10:FUJ13 GEF10:GEF13 GOB10:GOB13 GXX10:GXX13 HHT10:HHT13 HRP10:HRP13 IBL10:IBL13 ILH10:ILH13 IVD10:IVD13 JEZ10:JEZ13 JOV10:JOV13 JYR10:JYR13 KIN10:KIN13 KSJ10:KSJ13 LCF10:LCF13 LMB10:LMB13 LVX10:LVX13 MFT10:MFT13 MPP10:MPP13 MZL10:MZL13 NJH10:NJH13 NTD10:NTD13 OCZ10:OCZ13 OMV10:OMV13 OWR10:OWR13 PGN10:PGN13 PQJ10:PQJ13 QAF10:QAF13 QKB10:QKB13 QTX10:QTX13 RDT10:RDT13 RNP10:RNP13 RXL10:RXL13 SHH10:SHH13 SRD10:SRD13 TAZ10:TAZ13 TKV10:TKV13 TUR10:TUR13 UEN10:UEN13 UOJ10:UOJ13 UYF10:UYF13 VIB10:VIB13 VRX10:VRX13 WBT10:WBT13 WLP10:WLP13 D10:D13">
       <formula1>"Planned,Ongoing,Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1494,22 +1924,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -1583,807 +2013,6 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-    </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-    </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-    </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>IF(A17&lt;&gt;"","Planned","")</f>
-        <v>Planned</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5">
-        <v>25</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5">
-        <v>26</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="59" priority="35" stopIfTrue="1">
-      <formula>$D17="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="36" stopIfTrue="1">
-      <formula>$D17="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:AD12 B13:AD13 A14:E14 A15:B16 B17:B18 D15:E18">
-    <cfRule type="expression" dxfId="57" priority="43" stopIfTrue="1">
-      <formula>$D10="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="44" stopIfTrue="1">
-      <formula>$D10="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="55" priority="45" stopIfTrue="1">
-      <formula>$D14="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="46" stopIfTrue="1">
-      <formula>$D14="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="53" priority="47" stopIfTrue="1">
-      <formula>$D13="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
-      <formula>$D13="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="51" priority="41" stopIfTrue="1">
-      <formula>$D16="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="42" stopIfTrue="1">
-      <formula>$D16="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
-      <formula>$D15="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="40" stopIfTrue="1">
-      <formula>$D15="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="47" priority="37" stopIfTrue="1">
-      <formula>$D18="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38" stopIfTrue="1">
-      <formula>$D18="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B24 A26:A33 B25:B33 D19:E33">
-    <cfRule type="expression" dxfId="45" priority="31" stopIfTrue="1">
-      <formula>$D19="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="32" stopIfTrue="1">
-      <formula>$D19="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
-      <formula>$D24="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="34" stopIfTrue="1">
-      <formula>$D24="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="41" priority="29" stopIfTrue="1">
-      <formula>$D19="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="30" stopIfTrue="1">
-      <formula>$D19="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="39" priority="27" stopIfTrue="1">
-      <formula>$D24="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
-      <formula>$D24="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="37" priority="25" stopIfTrue="1">
-      <formula>$D30="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="26" stopIfTrue="1">
-      <formula>$D30="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="35" priority="23" stopIfTrue="1">
-      <formula>$D23="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="24" stopIfTrue="1">
-      <formula>$D23="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
-      <formula>$D29="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
-      <formula>$D29="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="31" priority="19" stopIfTrue="1">
-      <formula>$D22="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
-      <formula>$D22="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="29" priority="17" stopIfTrue="1">
-      <formula>$D28="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18" stopIfTrue="1">
-      <formula>$D28="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
-      <formula>$D21="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
-      <formula>$D21="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="25" priority="13" stopIfTrue="1">
-      <formula>$D27="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
-      <formula>$D27="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
-      <formula>$D33="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12" stopIfTrue="1">
-      <formula>$D33="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
-      <formula>$D20="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
-      <formula>$D20="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
-      <formula>$D25="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
-      <formula>$D25="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
-      <formula>$D31="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
-      <formula>$D31="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
-      <formula>$D26="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
-      <formula>$D26="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
-      <formula>$D32="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
-      <formula>$D32="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="WVL10:WVL13 IZ10:IZ13 SV10:SV13 ACR10:ACR13 AMN10:AMN13 AWJ10:AWJ13 BGF10:BGF13 BQB10:BQB13 BZX10:BZX13 CJT10:CJT13 CTP10:CTP13 DDL10:DDL13 DNH10:DNH13 DXD10:DXD13 EGZ10:EGZ13 EQV10:EQV13 FAR10:FAR13 FKN10:FKN13 FUJ10:FUJ13 GEF10:GEF13 GOB10:GOB13 GXX10:GXX13 HHT10:HHT13 HRP10:HRP13 IBL10:IBL13 ILH10:ILH13 IVD10:IVD13 JEZ10:JEZ13 JOV10:JOV13 JYR10:JYR13 KIN10:KIN13 KSJ10:KSJ13 LCF10:LCF13 LMB10:LMB13 LVX10:LVX13 MFT10:MFT13 MPP10:MPP13 MZL10:MZL13 NJH10:NJH13 NTD10:NTD13 OCZ10:OCZ13 OMV10:OMV13 OWR10:OWR13 PGN10:PGN13 PQJ10:PQJ13 QAF10:QAF13 QKB10:QKB13 QTX10:QTX13 RDT10:RDT13 RNP10:RNP13 RXL10:RXL13 SHH10:SHH13 SRD10:SRD13 TAZ10:TAZ13 TKV10:TKV13 TUR10:TUR13 UEN10:UEN13 UOJ10:UOJ13 UYF10:UYF13 VIB10:VIB13 VRX10:VRX13 WBT10:WBT13 WLP10:WLP13 D10:D13">
-      <formula1>"Planned,Ongoing,Done"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-    </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>21</v>
@@ -2455,34 +2084,34 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A10:E11">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$D10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>$D10="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B13 D12:E13">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>$D12="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>$D12="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D13="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>$D13="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$D12="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$D12="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
